--- a/3.接口数据.xlsx
+++ b/3.接口数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizijie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作\实际项目\1.二维组态封装\3.开发参考实例\topology-react-dva\topology-react-dva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF508D8A-8370-47BD-9675-CE25AA2CD643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0586FA-A59B-4BDD-B499-7A38C10017C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <r>
       <t>component</t>
@@ -726,6 +726,10 @@
   </si>
   <si>
     <t>this.data.data = this.canvas.data;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -811,12 +815,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -831,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -840,6 +850,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,7 +1138,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1157,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>

--- a/3.接口数据.xlsx
+++ b/3.接口数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作\实际项目\1.二维组态封装\3.开发参考实例\topology-react-dva\topology-react-dva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0586FA-A59B-4BDD-B499-7A38C10017C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D8BB78-23F5-4E7F-B7C7-5536BA17BAB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <r>
       <t>component</t>
@@ -47,317 +47,6 @@
         <family val="3"/>
       </rPr>
       <t>true</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>deletedAt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0001-01-01T00:00:00Z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>desc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>""</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>editorId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>5fb3ce3ecd9a3a6970b2a82d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>5fd627b5eb4de900019d78a9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>image</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/image/topology/thumb_eca019da72cd4b6c.png</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>新组件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>recommend</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1C00CF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>shared</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF0D22AA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>false</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>star</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1C00CF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>tags</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: []</t>
     </r>
   </si>
   <si>
@@ -729,7 +418,356 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>onEditTool</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>deletedAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0001-01-01T00:00:00Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>desc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>editorId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5fb3ce3ecd9a3a6970b2a82d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5fd627b5eb4de900019d78a9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/image/topology/thumb_eca019da72cd4b6c.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>新组件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>recommend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>shared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0D22AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: []</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库返回</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初次提交返回，用来再次查询详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>this.data.image = file.url</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始state中，编辑在组件CanvasProps</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,8 +852,36 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF881391"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF881391"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,8 +894,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -837,22 +909,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1146,161 +1317,246 @@
     <col min="1" max="1" width="26.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="69.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
